--- a/data/pca/factorExposure/factorExposure_2011-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008728185840641551</v>
+        <v>0.01182285958121361</v>
       </c>
       <c r="C2">
-        <v>-0.03071340014284208</v>
+        <v>0.0198877146684831</v>
       </c>
       <c r="D2">
-        <v>-0.01803290514963341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02505570058963142</v>
+      </c>
+      <c r="E2">
+        <v>-0.009898539397827822</v>
+      </c>
+      <c r="F2">
+        <v>0.0335876672255704</v>
+      </c>
+      <c r="G2">
+        <v>-0.001245597468690989</v>
+      </c>
+      <c r="H2">
+        <v>0.01926847649669631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07437154546859231</v>
+        <v>0.08836004321153078</v>
       </c>
       <c r="C4">
-        <v>-0.06456947267740133</v>
+        <v>0.02212528027195307</v>
       </c>
       <c r="D4">
-        <v>-0.07053751172697487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08151206560463752</v>
+      </c>
+      <c r="E4">
+        <v>-0.01007409552455077</v>
+      </c>
+      <c r="F4">
+        <v>0.04278480751827993</v>
+      </c>
+      <c r="G4">
+        <v>0.02300379334473453</v>
+      </c>
+      <c r="H4">
+        <v>-0.03367106464255986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1082671299594899</v>
+        <v>0.1228691294847506</v>
       </c>
       <c r="C6">
-        <v>-0.06278655239114032</v>
+        <v>0.04096363659966618</v>
       </c>
       <c r="D6">
-        <v>-0.0005118700677390575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02243936886554094</v>
+      </c>
+      <c r="E6">
+        <v>0.02512897835873019</v>
+      </c>
+      <c r="F6">
+        <v>0.03938653073747406</v>
+      </c>
+      <c r="G6">
+        <v>0.05080691579516845</v>
+      </c>
+      <c r="H6">
+        <v>0.1730074199824745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05584620297676907</v>
+        <v>0.0658727869339525</v>
       </c>
       <c r="C7">
-        <v>-0.04157099457949715</v>
+        <v>0.009538356454973102</v>
       </c>
       <c r="D7">
-        <v>-0.02938345358711288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05701166149472375</v>
+      </c>
+      <c r="E7">
+        <v>-0.0243841478117748</v>
+      </c>
+      <c r="F7">
+        <v>0.04620358147251913</v>
+      </c>
+      <c r="G7">
+        <v>-0.02657510053330562</v>
+      </c>
+      <c r="H7">
+        <v>-0.01711058505345145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03822567200324999</v>
+        <v>0.04341023713428693</v>
       </c>
       <c r="C8">
-        <v>-0.01518657997556087</v>
+        <v>0.002140445032906477</v>
       </c>
       <c r="D8">
-        <v>-0.06425661852451534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03040359305016417</v>
+      </c>
+      <c r="E8">
+        <v>-0.008396576869545001</v>
+      </c>
+      <c r="F8">
+        <v>0.07406385726419683</v>
+      </c>
+      <c r="G8">
+        <v>0.08700735337271315</v>
+      </c>
+      <c r="H8">
+        <v>0.009654275182425504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07150522080539004</v>
+        <v>0.08114987281512509</v>
       </c>
       <c r="C9">
-        <v>-0.05148972423050112</v>
+        <v>0.01272401418726658</v>
       </c>
       <c r="D9">
-        <v>-0.06585623926776414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07126639670309592</v>
+      </c>
+      <c r="E9">
+        <v>-0.02273724546842507</v>
+      </c>
+      <c r="F9">
+        <v>0.0377581469510058</v>
+      </c>
+      <c r="G9">
+        <v>0.03397475363109941</v>
+      </c>
+      <c r="H9">
+        <v>-0.03662872683667688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02402536007845565</v>
+        <v>0.05051918515899863</v>
       </c>
       <c r="C10">
-        <v>-0.01583235132136527</v>
+        <v>0.1080264995222267</v>
       </c>
       <c r="D10">
-        <v>0.1726924711827697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1598168112157231</v>
+      </c>
+      <c r="E10">
+        <v>-0.02941816677772043</v>
+      </c>
+      <c r="F10">
+        <v>0.05781104445931751</v>
+      </c>
+      <c r="G10">
+        <v>-0.03218831304360598</v>
+      </c>
+      <c r="H10">
+        <v>0.03871774747852085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06670401260416706</v>
+        <v>0.07299542371352379</v>
       </c>
       <c r="C11">
-        <v>-0.04539002854760232</v>
+        <v>0.004950172055928014</v>
       </c>
       <c r="D11">
-        <v>-0.05730080784522263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06558648853195909</v>
+      </c>
+      <c r="E11">
+        <v>-0.00381666748153207</v>
+      </c>
+      <c r="F11">
+        <v>0.03599690522338244</v>
+      </c>
+      <c r="G11">
+        <v>0.04434236464142564</v>
+      </c>
+      <c r="H11">
+        <v>-0.06286462484103032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0592490588129209</v>
+        <v>0.06764136197710584</v>
       </c>
       <c r="C12">
-        <v>-0.05544777265016791</v>
+        <v>0.01727049482650784</v>
       </c>
       <c r="D12">
-        <v>-0.04553943046833579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0585860570153527</v>
+      </c>
+      <c r="E12">
+        <v>-0.0110002885860421</v>
+      </c>
+      <c r="F12">
+        <v>0.02421757381701837</v>
+      </c>
+      <c r="G12">
+        <v>0.01954896127711962</v>
+      </c>
+      <c r="H12">
+        <v>-0.02805160981164017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06876913418957244</v>
+        <v>0.07004668584727569</v>
       </c>
       <c r="C13">
-        <v>-0.05187254673633406</v>
+        <v>0.01708193266631756</v>
       </c>
       <c r="D13">
-        <v>-0.03465999654910972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04694327617135231</v>
+      </c>
+      <c r="E13">
+        <v>-0.008968343043509597</v>
+      </c>
+      <c r="F13">
+        <v>0.01979305054113617</v>
+      </c>
+      <c r="G13">
+        <v>0.02023334552569883</v>
+      </c>
+      <c r="H13">
+        <v>-0.04730103313569881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02937377570333935</v>
+        <v>0.03949424123090161</v>
       </c>
       <c r="C14">
-        <v>-0.03093374292341285</v>
+        <v>0.02372388618745094</v>
       </c>
       <c r="D14">
-        <v>0.005488296801516828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02080109424038064</v>
+      </c>
+      <c r="E14">
+        <v>-0.02497471303877863</v>
+      </c>
+      <c r="F14">
+        <v>0.01726524030607144</v>
+      </c>
+      <c r="G14">
+        <v>0.01612988140544795</v>
+      </c>
+      <c r="H14">
+        <v>-0.06891293928382397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0402760775390018</v>
+        <v>0.0390359566895821</v>
       </c>
       <c r="C15">
-        <v>-0.01359313312440583</v>
+        <v>0.0005888547569892034</v>
       </c>
       <c r="D15">
-        <v>-0.02351151071557529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01281429649262649</v>
+      </c>
+      <c r="E15">
+        <v>-0.03098232367349509</v>
+      </c>
+      <c r="F15">
+        <v>0.00384431684838358</v>
+      </c>
+      <c r="G15">
+        <v>0.03140289454786253</v>
+      </c>
+      <c r="H15">
+        <v>-0.03180880721917495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05700375523908767</v>
+        <v>0.06943910975485586</v>
       </c>
       <c r="C16">
-        <v>-0.04225478821361645</v>
+        <v>0.007238416251259243</v>
       </c>
       <c r="D16">
-        <v>-0.05494359449110485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06661722933970832</v>
+      </c>
+      <c r="E16">
+        <v>-0.006535359799671912</v>
+      </c>
+      <c r="F16">
+        <v>0.03033942218493313</v>
+      </c>
+      <c r="G16">
+        <v>0.01885716471065179</v>
+      </c>
+      <c r="H16">
+        <v>-0.04650541378425854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06171598362240069</v>
+        <v>0.06257619054437388</v>
       </c>
       <c r="C20">
-        <v>-0.03285186020303146</v>
+        <v>0.0005658726364206718</v>
       </c>
       <c r="D20">
-        <v>-0.04466894750619754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0430441357946706</v>
+      </c>
+      <c r="E20">
+        <v>-0.005899754097334069</v>
+      </c>
+      <c r="F20">
+        <v>0.02730416744901534</v>
+      </c>
+      <c r="G20">
+        <v>0.02062215904415852</v>
+      </c>
+      <c r="H20">
+        <v>-0.04330516048456205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03278673432970063</v>
+        <v>0.02780096106958047</v>
       </c>
       <c r="C21">
-        <v>-0.01061983417726835</v>
+        <v>-0.007395105830443493</v>
       </c>
       <c r="D21">
-        <v>-0.008930495526972998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01941124660024413</v>
+      </c>
+      <c r="E21">
+        <v>-0.0410509471983735</v>
+      </c>
+      <c r="F21">
+        <v>-0.01317882223455937</v>
+      </c>
+      <c r="G21">
+        <v>0.007614976955947102</v>
+      </c>
+      <c r="H21">
+        <v>0.039612182221711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08183692898813208</v>
+        <v>0.0737903095248939</v>
       </c>
       <c r="C22">
-        <v>-0.0831292644802947</v>
+        <v>0.01847055525416918</v>
       </c>
       <c r="D22">
-        <v>-0.1264645688388175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1052376175199629</v>
+      </c>
+      <c r="E22">
+        <v>-0.6033720078374892</v>
+      </c>
+      <c r="F22">
+        <v>-0.03983098558460258</v>
+      </c>
+      <c r="G22">
+        <v>-0.1858697975924151</v>
+      </c>
+      <c r="H22">
+        <v>0.1420287968612299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08315443928511743</v>
+        <v>0.07494997643159955</v>
       </c>
       <c r="C23">
-        <v>-0.08250434794501241</v>
+        <v>0.01750198504107202</v>
       </c>
       <c r="D23">
-        <v>-0.127152275354095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1059108669036237</v>
+      </c>
+      <c r="E23">
+        <v>-0.6051540929990987</v>
+      </c>
+      <c r="F23">
+        <v>-0.03925401474308363</v>
+      </c>
+      <c r="G23">
+        <v>-0.1801022613342429</v>
+      </c>
+      <c r="H23">
+        <v>0.1384869407655895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07279120488726511</v>
+        <v>0.07919861094940553</v>
       </c>
       <c r="C24">
-        <v>-0.05440377341349258</v>
+        <v>0.0121775695203842</v>
       </c>
       <c r="D24">
-        <v>-0.05936193025818001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06673988486360886</v>
+      </c>
+      <c r="E24">
+        <v>-0.01321918881058243</v>
+      </c>
+      <c r="F24">
+        <v>0.03679180226294358</v>
+      </c>
+      <c r="G24">
+        <v>0.03852177580819796</v>
+      </c>
+      <c r="H24">
+        <v>-0.0311369655351397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07163138403189942</v>
+        <v>0.07792609128937947</v>
       </c>
       <c r="C25">
-        <v>-0.05799216148146769</v>
+        <v>0.01876878074562396</v>
       </c>
       <c r="D25">
-        <v>-0.05600453076019588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06078593135308058</v>
+      </c>
+      <c r="E25">
+        <v>-0.01842445486436748</v>
+      </c>
+      <c r="F25">
+        <v>0.03379986847172234</v>
+      </c>
+      <c r="G25">
+        <v>0.04289391609296484</v>
+      </c>
+      <c r="H25">
+        <v>-0.0403898908518496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04433329987768006</v>
+        <v>0.04560693347578187</v>
       </c>
       <c r="C26">
-        <v>-0.01709890161768367</v>
+        <v>0.000176935982990935</v>
       </c>
       <c r="D26">
-        <v>-0.01096957460333396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01950502098772329</v>
+      </c>
+      <c r="E26">
+        <v>-0.04410009578874931</v>
+      </c>
+      <c r="F26">
+        <v>0.02672485501542869</v>
+      </c>
+      <c r="G26">
+        <v>0.02676659564956006</v>
+      </c>
+      <c r="H26">
+        <v>-0.04717470200234435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04010480016054752</v>
+        <v>0.07222436080096596</v>
       </c>
       <c r="C28">
-        <v>-0.04738937057249823</v>
+        <v>0.1818109115846077</v>
       </c>
       <c r="D28">
-        <v>0.3126726447707458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2622922454530558</v>
+      </c>
+      <c r="E28">
+        <v>-0.03335466184024213</v>
+      </c>
+      <c r="F28">
+        <v>0.05173173782841327</v>
+      </c>
+      <c r="G28">
+        <v>0.02439403123893797</v>
+      </c>
+      <c r="H28">
+        <v>0.06280653064735296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04323887254259361</v>
+        <v>0.04868977526309256</v>
       </c>
       <c r="C29">
-        <v>-0.04328545179504731</v>
+        <v>0.02894348471549717</v>
       </c>
       <c r="D29">
-        <v>0.003515112950035247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02219931781532324</v>
+      </c>
+      <c r="E29">
+        <v>-0.05060664291041069</v>
+      </c>
+      <c r="F29">
+        <v>0.02036555192150551</v>
+      </c>
+      <c r="G29">
+        <v>0.004340196973800711</v>
+      </c>
+      <c r="H29">
+        <v>-0.08975035366148987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.129100708356019</v>
+        <v>0.1273486163913009</v>
       </c>
       <c r="C30">
-        <v>-0.1066277383682676</v>
+        <v>0.03773655216455752</v>
       </c>
       <c r="D30">
-        <v>-0.1034432476241706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09711486737486383</v>
+      </c>
+      <c r="E30">
+        <v>-0.05357016296441248</v>
+      </c>
+      <c r="F30">
+        <v>0.01995052261844506</v>
+      </c>
+      <c r="G30">
+        <v>0.07913595766207314</v>
+      </c>
+      <c r="H30">
+        <v>0.05372643239329615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04908072974026178</v>
+        <v>0.04903562860914299</v>
       </c>
       <c r="C31">
-        <v>-0.02475314465349999</v>
+        <v>-0.001920559440808901</v>
       </c>
       <c r="D31">
-        <v>-0.01965378890405663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03690591188890639</v>
+      </c>
+      <c r="E31">
+        <v>-0.02316324331806379</v>
+      </c>
+      <c r="F31">
+        <v>0.01056589200524695</v>
+      </c>
+      <c r="G31">
+        <v>-0.006256538605987608</v>
+      </c>
+      <c r="H31">
+        <v>-0.06702595043663365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03540018875541581</v>
+        <v>0.03879444450795205</v>
       </c>
       <c r="C32">
-        <v>-0.02636784679241756</v>
+        <v>0.01935443154138437</v>
       </c>
       <c r="D32">
-        <v>-0.02947667865299974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01390749378816462</v>
+      </c>
+      <c r="E32">
+        <v>-0.04419659026769123</v>
+      </c>
+      <c r="F32">
+        <v>-0.001046236291819508</v>
+      </c>
+      <c r="G32">
+        <v>0.04562345458323733</v>
+      </c>
+      <c r="H32">
+        <v>-0.008407879189373238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08392128786795686</v>
+        <v>0.09350878253557258</v>
       </c>
       <c r="C33">
-        <v>-0.04913840047972273</v>
+        <v>0.01018377479965039</v>
       </c>
       <c r="D33">
-        <v>-0.04731140067636352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05646176193567044</v>
+      </c>
+      <c r="E33">
+        <v>-0.01268090792238978</v>
+      </c>
+      <c r="F33">
+        <v>0.00208927341478337</v>
+      </c>
+      <c r="G33">
+        <v>0.006095736234252602</v>
+      </c>
+      <c r="H33">
+        <v>-0.06070192026405456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05796663349564617</v>
+        <v>0.06710891566604703</v>
       </c>
       <c r="C34">
-        <v>-0.03023023603538581</v>
+        <v>0.0006394411877299591</v>
       </c>
       <c r="D34">
-        <v>-0.05255714536587442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04908940444621303</v>
+      </c>
+      <c r="E34">
+        <v>-0.01413473361864325</v>
+      </c>
+      <c r="F34">
+        <v>0.02111606582867838</v>
+      </c>
+      <c r="G34">
+        <v>0.02571653731930401</v>
+      </c>
+      <c r="H34">
+        <v>-0.04852408032403374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03651126991983861</v>
+        <v>0.03775806113280861</v>
       </c>
       <c r="C35">
-        <v>-0.01791517746094372</v>
+        <v>0.003143200299265562</v>
       </c>
       <c r="D35">
-        <v>-0.01789501858456716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02004238093747361</v>
+      </c>
+      <c r="E35">
+        <v>-0.02105736444386418</v>
+      </c>
+      <c r="F35">
+        <v>-0.01472689667514956</v>
+      </c>
+      <c r="G35">
+        <v>-0.003807488601576683</v>
+      </c>
+      <c r="H35">
+        <v>-0.03339449684124116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02571785880537469</v>
+        <v>0.02780874549986818</v>
       </c>
       <c r="C36">
-        <v>-0.02149435327303691</v>
+        <v>0.00814722700996603</v>
       </c>
       <c r="D36">
-        <v>-0.01911592549953656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02177231264102925</v>
+      </c>
+      <c r="E36">
+        <v>-0.03376882239049615</v>
+      </c>
+      <c r="F36">
+        <v>0.02757378923461805</v>
+      </c>
+      <c r="G36">
+        <v>0.01339423549547851</v>
+      </c>
+      <c r="H36">
+        <v>-0.04210396270046099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0538558988227533</v>
+        <v>0.04929910353383052</v>
       </c>
       <c r="C38">
-        <v>-0.01557866986433432</v>
+        <v>-0.008153935024590461</v>
       </c>
       <c r="D38">
-        <v>-0.003051625351202652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02273684207425938</v>
+      </c>
+      <c r="E38">
+        <v>-0.04945533350406739</v>
+      </c>
+      <c r="F38">
+        <v>-0.002353782269338213</v>
+      </c>
+      <c r="G38">
+        <v>0.003404660089026775</v>
+      </c>
+      <c r="H38">
+        <v>-0.02620789692049843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08874897120231086</v>
+        <v>0.0997180972457031</v>
       </c>
       <c r="C39">
-        <v>-0.07996026981409035</v>
+        <v>0.03341322750007698</v>
       </c>
       <c r="D39">
-        <v>-0.04621021947555434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07683918965096864</v>
+      </c>
+      <c r="E39">
+        <v>-0.002961079982974848</v>
+      </c>
+      <c r="F39">
+        <v>0.00456836242524544</v>
+      </c>
+      <c r="G39">
+        <v>0.05174874465336949</v>
+      </c>
+      <c r="H39">
+        <v>-0.0209903419984391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07845247650908677</v>
+        <v>0.0584675640960786</v>
       </c>
       <c r="C40">
-        <v>-0.04076438722763066</v>
+        <v>-0.008911673014421105</v>
       </c>
       <c r="D40">
-        <v>-0.01204251229251976</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03581084314726562</v>
+      </c>
+      <c r="E40">
+        <v>-0.04147901505264258</v>
+      </c>
+      <c r="F40">
+        <v>-0.03721278297080014</v>
+      </c>
+      <c r="G40">
+        <v>0.05935473440107125</v>
+      </c>
+      <c r="H40">
+        <v>0.07716401067119222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0457917411537169</v>
+        <v>0.04574020175829008</v>
       </c>
       <c r="C41">
-        <v>-0.02034449457443461</v>
+        <v>-0.006290915575470501</v>
       </c>
       <c r="D41">
-        <v>-0.03146803002120912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03441212127305179</v>
+      </c>
+      <c r="E41">
+        <v>-0.001128578397226591</v>
+      </c>
+      <c r="F41">
+        <v>-0.01319373495887663</v>
+      </c>
+      <c r="G41">
+        <v>0.005948376666487187</v>
+      </c>
+      <c r="H41">
+        <v>-0.03392106849026304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05270869526164712</v>
+        <v>0.05914623126905743</v>
       </c>
       <c r="C43">
-        <v>-0.03169644604485896</v>
+        <v>0.008713399068687044</v>
       </c>
       <c r="D43">
-        <v>-0.006491362318933968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03457253523748322</v>
+      </c>
+      <c r="E43">
+        <v>-0.01872597966671441</v>
+      </c>
+      <c r="F43">
+        <v>0.01401072194107316</v>
+      </c>
+      <c r="G43">
+        <v>-0.01841537112540018</v>
+      </c>
+      <c r="H43">
+        <v>-0.05787972725339934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0954514901737664</v>
+        <v>0.09470150520409606</v>
       </c>
       <c r="C44">
-        <v>-0.03704493762623313</v>
+        <v>-0.004612117999854988</v>
       </c>
       <c r="D44">
-        <v>-0.04881802234579468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05515189654316762</v>
+      </c>
+      <c r="E44">
+        <v>-0.07894859134002694</v>
+      </c>
+      <c r="F44">
+        <v>0.0829133542326313</v>
+      </c>
+      <c r="G44">
+        <v>0.06990825118891705</v>
+      </c>
+      <c r="H44">
+        <v>-0.04895922532246672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02561591818218983</v>
+        <v>0.03793086020643428</v>
       </c>
       <c r="C46">
-        <v>-0.02384928669785897</v>
+        <v>0.01047797882051431</v>
       </c>
       <c r="D46">
-        <v>-0.03052795411213413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03897664495740745</v>
+      </c>
+      <c r="E46">
+        <v>-0.03067184402832327</v>
+      </c>
+      <c r="F46">
+        <v>0.01701460697367918</v>
+      </c>
+      <c r="G46">
+        <v>-0.003558545011945561</v>
+      </c>
+      <c r="H46">
+        <v>-0.03557343740758688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03352920150810975</v>
+        <v>0.04168651934060592</v>
       </c>
       <c r="C47">
-        <v>-0.02375842969558864</v>
+        <v>0.01556717873339839</v>
       </c>
       <c r="D47">
-        <v>0.006480271220246599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01416055093957769</v>
+      </c>
+      <c r="E47">
+        <v>-0.0411587153688719</v>
+      </c>
+      <c r="F47">
+        <v>-0.008126198182371864</v>
+      </c>
+      <c r="G47">
+        <v>-0.03353220428473871</v>
+      </c>
+      <c r="H47">
+        <v>-0.02040881598632463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03606026868504097</v>
+        <v>0.03979138149129752</v>
       </c>
       <c r="C48">
-        <v>-0.03046158886041265</v>
+        <v>0.01199546586277664</v>
       </c>
       <c r="D48">
-        <v>-0.02804100114801849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02471031336100048</v>
+      </c>
+      <c r="E48">
+        <v>-0.04007014394142569</v>
+      </c>
+      <c r="F48">
+        <v>0.007702460613804959</v>
+      </c>
+      <c r="G48">
+        <v>0.02236059792438083</v>
+      </c>
+      <c r="H48">
+        <v>-0.02273666762448113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.15993150712891</v>
+        <v>0.1960643602412034</v>
       </c>
       <c r="C49">
-        <v>-0.05479139025028709</v>
+        <v>0.0288926796306445</v>
       </c>
       <c r="D49">
-        <v>-0.006556660518661165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03482926256459383</v>
+      </c>
+      <c r="E49">
+        <v>0.1803497286995147</v>
+      </c>
+      <c r="F49">
+        <v>0.03092407090959553</v>
+      </c>
+      <c r="G49">
+        <v>-0.1355066352095105</v>
+      </c>
+      <c r="H49">
+        <v>0.2364721991620736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04534232942008929</v>
+        <v>0.04826801826222513</v>
       </c>
       <c r="C50">
-        <v>-0.03077613631521882</v>
+        <v>0.006384108182584935</v>
       </c>
       <c r="D50">
-        <v>-0.02856748298342758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03929393610742181</v>
+      </c>
+      <c r="E50">
+        <v>-0.02686203219658791</v>
+      </c>
+      <c r="F50">
+        <v>0.006329041453068123</v>
+      </c>
+      <c r="G50">
+        <v>0.0009881740303758781</v>
+      </c>
+      <c r="H50">
+        <v>-0.07461599590570971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02437583072153037</v>
+        <v>0.03403891129345601</v>
       </c>
       <c r="C51">
-        <v>-0.003984044958730118</v>
+        <v>0.00285429575246805</v>
       </c>
       <c r="D51">
-        <v>0.003547175225460359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002276098963044028</v>
+      </c>
+      <c r="E51">
+        <v>-0.007167458599454651</v>
+      </c>
+      <c r="F51">
+        <v>0.01256286905480628</v>
+      </c>
+      <c r="G51">
+        <v>-0.02152384985692451</v>
+      </c>
+      <c r="H51">
+        <v>0.02013187679390111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1511571483356841</v>
+        <v>0.160364552022417</v>
       </c>
       <c r="C53">
-        <v>-0.08540653507933135</v>
+        <v>0.04580501250308391</v>
       </c>
       <c r="D53">
-        <v>0.01187860913459258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03506539695252457</v>
+      </c>
+      <c r="E53">
+        <v>0.03064581386103908</v>
+      </c>
+      <c r="F53">
+        <v>-0.0003416692076126314</v>
+      </c>
+      <c r="G53">
+        <v>-0.01339048564077255</v>
+      </c>
+      <c r="H53">
+        <v>-0.1973095717352804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05788986426923936</v>
+        <v>0.06000845724623215</v>
       </c>
       <c r="C54">
-        <v>-0.03444559554349059</v>
+        <v>0.01856459585486431</v>
       </c>
       <c r="D54">
-        <v>-0.016933387866805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01822458120825403</v>
+      </c>
+      <c r="E54">
+        <v>-0.05685207508693003</v>
+      </c>
+      <c r="F54">
+        <v>0.01881638291883013</v>
+      </c>
+      <c r="G54">
+        <v>0.05651123787815698</v>
+      </c>
+      <c r="H54">
+        <v>-0.04531548789108229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09777350648486216</v>
+        <v>0.1007099676360523</v>
       </c>
       <c r="C55">
-        <v>-0.05614728823988716</v>
+        <v>0.02268113025121501</v>
       </c>
       <c r="D55">
-        <v>-0.006442612950358416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03559720023454353</v>
+      </c>
+      <c r="E55">
+        <v>0.003136037304354979</v>
+      </c>
+      <c r="F55">
+        <v>0.01771989667897167</v>
+      </c>
+      <c r="G55">
+        <v>0.008801337543230989</v>
+      </c>
+      <c r="H55">
+        <v>-0.1561688378726498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1482915390973794</v>
+        <v>0.1547641649481802</v>
       </c>
       <c r="C56">
-        <v>-0.08796789444972149</v>
+        <v>0.03649520934763134</v>
       </c>
       <c r="D56">
-        <v>0.008188713560790192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0538350931666251</v>
+      </c>
+      <c r="E56">
+        <v>0.01208047639790897</v>
+      </c>
+      <c r="F56">
+        <v>0.01964716100406668</v>
+      </c>
+      <c r="G56">
+        <v>-0.004978329858920245</v>
+      </c>
+      <c r="H56">
+        <v>-0.203977385314657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1317359536832438</v>
+        <v>0.09792753985193425</v>
       </c>
       <c r="C58">
-        <v>0.01969242170524564</v>
+        <v>-0.07591503599376995</v>
       </c>
       <c r="D58">
-        <v>-0.05266096273496713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01141102438845669</v>
+      </c>
+      <c r="E58">
+        <v>-0.1247117402624525</v>
+      </c>
+      <c r="F58">
+        <v>0.03426793752611716</v>
+      </c>
+      <c r="G58">
+        <v>-0.08348988131307027</v>
+      </c>
+      <c r="H58">
+        <v>0.2037918969579303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1148185297113</v>
+        <v>0.1483978131748728</v>
       </c>
       <c r="C59">
-        <v>-0.05983301575220328</v>
+        <v>0.2001791921985741</v>
       </c>
       <c r="D59">
-        <v>0.4146011586020611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3099045102880172</v>
+      </c>
+      <c r="E59">
+        <v>-0.02599299420015</v>
+      </c>
+      <c r="F59">
+        <v>0.0057728716863389</v>
+      </c>
+      <c r="G59">
+        <v>0.005452647152502185</v>
+      </c>
+      <c r="H59">
+        <v>-0.01448021529480127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.205086114797506</v>
+        <v>0.2374293405731478</v>
       </c>
       <c r="C60">
-        <v>-0.1062218445556565</v>
+        <v>0.05498981812389457</v>
       </c>
       <c r="D60">
-        <v>0.003422923061750995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06093342628382575</v>
+      </c>
+      <c r="E60">
+        <v>0.1287823219340953</v>
+      </c>
+      <c r="F60">
+        <v>0.04292713239539221</v>
+      </c>
+      <c r="G60">
+        <v>-0.01847720480424579</v>
+      </c>
+      <c r="H60">
+        <v>0.155932493918475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07575177021539928</v>
+        <v>0.08446814839735113</v>
       </c>
       <c r="C61">
-        <v>-0.05077404348969545</v>
+        <v>0.0182903902632981</v>
       </c>
       <c r="D61">
-        <v>-0.03036547972179586</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05140065751608304</v>
+      </c>
+      <c r="E61">
+        <v>-0.008743272557509429</v>
+      </c>
+      <c r="F61">
+        <v>0.0142655400210771</v>
+      </c>
+      <c r="G61">
+        <v>0.02980452787813817</v>
+      </c>
+      <c r="H61">
+        <v>-0.06841506325548634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1306804583255097</v>
+        <v>0.1372328040161481</v>
       </c>
       <c r="C62">
-        <v>-0.05405647602555393</v>
+        <v>0.01065792862287271</v>
       </c>
       <c r="D62">
-        <v>0.008207216527489465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04456842450465451</v>
+      </c>
+      <c r="E62">
+        <v>0.04043584681159137</v>
+      </c>
+      <c r="F62">
+        <v>-0.0257931655272995</v>
+      </c>
+      <c r="G62">
+        <v>0.02377156312002073</v>
+      </c>
+      <c r="H62">
+        <v>-0.200179244197993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05039404843421946</v>
+        <v>0.04876863096535607</v>
       </c>
       <c r="C63">
-        <v>-0.02740717829314099</v>
+        <v>0.00642402820249891</v>
       </c>
       <c r="D63">
-        <v>-0.02467581979877987</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02671277764359096</v>
+      </c>
+      <c r="E63">
+        <v>-0.03861368346958578</v>
+      </c>
+      <c r="F63">
+        <v>5.051944495609552e-05</v>
+      </c>
+      <c r="G63">
+        <v>0.03650062359247257</v>
+      </c>
+      <c r="H63">
+        <v>-0.04026434842342389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1059172582841881</v>
+        <v>0.1116379848333344</v>
       </c>
       <c r="C64">
-        <v>-0.04648767583365566</v>
+        <v>0.0185608767246826</v>
       </c>
       <c r="D64">
-        <v>-0.01485490882803114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03070483084286145</v>
+      </c>
+      <c r="E64">
+        <v>-0.04101004476496481</v>
+      </c>
+      <c r="F64">
+        <v>0.04812211927781409</v>
+      </c>
+      <c r="G64">
+        <v>0.0586061191105653</v>
+      </c>
+      <c r="H64">
+        <v>-0.0215229438880884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1240065272984303</v>
+        <v>0.1306522555319115</v>
       </c>
       <c r="C65">
-        <v>-0.06883205154168784</v>
+        <v>0.04504150056550688</v>
       </c>
       <c r="D65">
-        <v>-0.005398548905762236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02413563178998775</v>
+      </c>
+      <c r="E65">
+        <v>0.002252492461219215</v>
+      </c>
+      <c r="F65">
+        <v>0.02546814985156706</v>
+      </c>
+      <c r="G65">
+        <v>0.07688216772102338</v>
+      </c>
+      <c r="H65">
+        <v>0.1977561717818911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.147431768615105</v>
+        <v>0.1514446907587371</v>
       </c>
       <c r="C66">
-        <v>-0.09339982420392816</v>
+        <v>0.01698836058123251</v>
       </c>
       <c r="D66">
-        <v>-0.09012567497193978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1133259014932716</v>
+      </c>
+      <c r="E66">
+        <v>0.02389848993216038</v>
+      </c>
+      <c r="F66">
+        <v>0.004403569289248027</v>
+      </c>
+      <c r="G66">
+        <v>0.07569917095348633</v>
+      </c>
+      <c r="H66">
+        <v>-0.08737229009119808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08185871452368233</v>
+        <v>0.08754325241238753</v>
       </c>
       <c r="C67">
-        <v>-0.02335940794130761</v>
+        <v>-0.005441450948332286</v>
       </c>
       <c r="D67">
-        <v>-0.01281713827015723</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03576888226287877</v>
+      </c>
+      <c r="E67">
+        <v>-0.01801244385137652</v>
+      </c>
+      <c r="F67">
+        <v>0.01390397937806966</v>
+      </c>
+      <c r="G67">
+        <v>-0.01216689604628329</v>
+      </c>
+      <c r="H67">
+        <v>-0.02273918436618927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04697212551630293</v>
+        <v>0.06460656299443891</v>
       </c>
       <c r="C68">
-        <v>-0.03040695434064634</v>
+        <v>0.1487693432146351</v>
       </c>
       <c r="D68">
-        <v>0.2620412073006821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2383516140283522</v>
+      </c>
+      <c r="E68">
+        <v>-0.04339715575961538</v>
+      </c>
+      <c r="F68">
+        <v>0.009652315308828138</v>
+      </c>
+      <c r="G68">
+        <v>0.0009325108964459338</v>
+      </c>
+      <c r="H68">
+        <v>-0.01379605689966735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05735105534368874</v>
+        <v>0.0542144656913925</v>
       </c>
       <c r="C69">
-        <v>-0.02748941331644022</v>
+        <v>0.001987851063653204</v>
       </c>
       <c r="D69">
-        <v>-0.01682228247811415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02306221055963471</v>
+      </c>
+      <c r="E69">
+        <v>-0.02030815120128418</v>
+      </c>
+      <c r="F69">
+        <v>-0.0140391715866939</v>
+      </c>
+      <c r="G69">
+        <v>-0.002005115511428909</v>
+      </c>
+      <c r="H69">
+        <v>-0.04020743034590958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.009740583217501764</v>
+        <v>0.03234804498733568</v>
       </c>
       <c r="C70">
-        <v>0.002412243725575194</v>
+        <v>0.003398830222527275</v>
       </c>
       <c r="D70">
-        <v>0.01189035228040166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006102106563249617</v>
+      </c>
+      <c r="E70">
+        <v>0.02504514244702373</v>
+      </c>
+      <c r="F70">
+        <v>-0.009659638015577027</v>
+      </c>
+      <c r="G70">
+        <v>-0.0250953850579873</v>
+      </c>
+      <c r="H70">
+        <v>0.02727299509821495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04334847036468185</v>
+        <v>0.06994925051463881</v>
       </c>
       <c r="C71">
-        <v>-0.02838763002031613</v>
+        <v>0.1645144933821213</v>
       </c>
       <c r="D71">
-        <v>0.2931292183363591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2593158469451822</v>
+      </c>
+      <c r="E71">
+        <v>-0.03938422283892319</v>
+      </c>
+      <c r="F71">
+        <v>0.03975827553560568</v>
+      </c>
+      <c r="G71">
+        <v>1.745125368423985e-05</v>
+      </c>
+      <c r="H71">
+        <v>-0.01371090671152078</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1378654033264944</v>
+        <v>0.1415219555614535</v>
       </c>
       <c r="C72">
-        <v>-0.06433606791485716</v>
+        <v>0.03083933706096975</v>
       </c>
       <c r="D72">
-        <v>0.01966127114367869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01047831638141893</v>
+      </c>
+      <c r="E72">
+        <v>0.04071478241229768</v>
+      </c>
+      <c r="F72">
+        <v>-0.1657676442816252</v>
+      </c>
+      <c r="G72">
+        <v>0.111574397119991</v>
+      </c>
+      <c r="H72">
+        <v>0.003677793713192001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2756627366607828</v>
+        <v>0.2792261306455089</v>
       </c>
       <c r="C73">
-        <v>-0.09500787437023533</v>
+        <v>-0.01207991068127708</v>
       </c>
       <c r="D73">
-        <v>-0.04212495938289584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09592617032143697</v>
+      </c>
+      <c r="E73">
+        <v>0.273454137840875</v>
+      </c>
+      <c r="F73">
+        <v>0.06233119496611263</v>
+      </c>
+      <c r="G73">
+        <v>-0.2510069045720194</v>
+      </c>
+      <c r="H73">
+        <v>0.3859782984561062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07722125643183231</v>
+        <v>0.08899750882878332</v>
       </c>
       <c r="C74">
-        <v>-0.07498780856426969</v>
+        <v>0.03890863827862809</v>
       </c>
       <c r="D74">
-        <v>-0.00281569401038367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05538196981558888</v>
+      </c>
+      <c r="E74">
+        <v>0.007721860882739176</v>
+      </c>
+      <c r="F74">
+        <v>0.0006795081765450266</v>
+      </c>
+      <c r="G74">
+        <v>-0.03922742286180192</v>
+      </c>
+      <c r="H74">
+        <v>-0.1293378845700936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.102907759254388</v>
+        <v>0.1030093859122143</v>
       </c>
       <c r="C75">
-        <v>-0.05579534989031439</v>
+        <v>0.01349154138126035</v>
       </c>
       <c r="D75">
-        <v>0.0007031111812946658</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03221315483074515</v>
+      </c>
+      <c r="E75">
+        <v>-0.0003191629751448539</v>
+      </c>
+      <c r="F75">
+        <v>-0.001895982969804453</v>
+      </c>
+      <c r="G75">
+        <v>-0.01186890235234678</v>
+      </c>
+      <c r="H75">
+        <v>-0.1044279572620072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1259689058841974</v>
+        <v>0.1370583063067363</v>
       </c>
       <c r="C76">
-        <v>-0.07477813470417322</v>
+        <v>0.02791786353340843</v>
       </c>
       <c r="D76">
-        <v>-0.01907378669234052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06630159088079271</v>
+      </c>
+      <c r="E76">
+        <v>-0.01054313265927476</v>
+      </c>
+      <c r="F76">
+        <v>0.03057959552278463</v>
+      </c>
+      <c r="G76">
+        <v>-0.002755713220119779</v>
+      </c>
+      <c r="H76">
+        <v>-0.2463799608621883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1187026290086733</v>
+        <v>0.09851872361368041</v>
       </c>
       <c r="C77">
-        <v>-0.03347188480087367</v>
+        <v>-0.02377064294973534</v>
       </c>
       <c r="D77">
-        <v>-0.07877287637891056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04117205220739151</v>
+      </c>
+      <c r="E77">
+        <v>-0.0598447001137799</v>
+      </c>
+      <c r="F77">
+        <v>0.06645843009698864</v>
+      </c>
+      <c r="G77">
+        <v>0.8021426756313709</v>
+      </c>
+      <c r="H77">
+        <v>0.2628677615458644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1064767365042238</v>
+        <v>0.1501721964156895</v>
       </c>
       <c r="C78">
-        <v>-0.05223005092600444</v>
+        <v>0.0223665847555163</v>
       </c>
       <c r="D78">
-        <v>-0.08029234462573599</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08835227933539351</v>
+      </c>
+      <c r="E78">
+        <v>-0.04823940958945231</v>
+      </c>
+      <c r="F78">
+        <v>0.05539715558707516</v>
+      </c>
+      <c r="G78">
+        <v>0.03391877389242087</v>
+      </c>
+      <c r="H78">
+        <v>0.1013970269268139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1364024955217044</v>
+        <v>0.1427440730002946</v>
       </c>
       <c r="C79">
-        <v>-0.07087413132216268</v>
+        <v>0.02029305842989063</v>
       </c>
       <c r="D79">
-        <v>-0.0255783062940306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05481890224968588</v>
+      </c>
+      <c r="E79">
+        <v>0.01261003599121126</v>
+      </c>
+      <c r="F79">
+        <v>0.01937522307154825</v>
+      </c>
+      <c r="G79">
+        <v>0.0157578900910646</v>
+      </c>
+      <c r="H79">
+        <v>-0.1694617935919882</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03642172778617286</v>
+        <v>0.03890454525180886</v>
       </c>
       <c r="C80">
-        <v>-0.02242777906713902</v>
+        <v>0.008667575780271344</v>
       </c>
       <c r="D80">
-        <v>-0.02558386303541296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01837437851505626</v>
+      </c>
+      <c r="E80">
+        <v>0.044786293740132</v>
+      </c>
+      <c r="F80">
+        <v>0.007141642224636873</v>
+      </c>
+      <c r="G80">
+        <v>-0.01141029211458403</v>
+      </c>
+      <c r="H80">
+        <v>-0.02916084993786307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1246505521728628</v>
+        <v>0.1280179444037156</v>
       </c>
       <c r="C81">
-        <v>-0.07642757998484462</v>
+        <v>0.03175903658821691</v>
       </c>
       <c r="D81">
-        <v>-0.01065241072443902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04080797845534788</v>
+      </c>
+      <c r="E81">
+        <v>0.00050323946749378</v>
+      </c>
+      <c r="F81">
+        <v>0.02345418771742493</v>
+      </c>
+      <c r="G81">
+        <v>-0.009578499662069292</v>
+      </c>
+      <c r="H81">
+        <v>-0.1564703856711547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1279404625014486</v>
+        <v>0.1303249122670594</v>
       </c>
       <c r="C82">
-        <v>-0.06930311770412173</v>
+        <v>0.02756409646279522</v>
       </c>
       <c r="D82">
-        <v>-0.009262219299435383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04314245627877578</v>
+      </c>
+      <c r="E82">
+        <v>0.01925435402182738</v>
+      </c>
+      <c r="F82">
+        <v>0.03722827264148698</v>
+      </c>
+      <c r="G82">
+        <v>-0.0147698938002405</v>
+      </c>
+      <c r="H82">
+        <v>-0.2380427571848973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06484156767606172</v>
+        <v>0.08011317538209398</v>
       </c>
       <c r="C83">
-        <v>0.02169511897317415</v>
+        <v>-0.03712162082039745</v>
       </c>
       <c r="D83">
-        <v>-0.02731805029339229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01341187695678706</v>
+      </c>
+      <c r="E83">
+        <v>-0.01490661117565149</v>
+      </c>
+      <c r="F83">
+        <v>0.03261930015639308</v>
+      </c>
+      <c r="G83">
+        <v>-0.05122617758687795</v>
+      </c>
+      <c r="H83">
+        <v>0.02676511727801121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02964245850279535</v>
+        <v>0.03312336413838531</v>
       </c>
       <c r="C84">
-        <v>-0.04368070539222109</v>
+        <v>0.01370756888040152</v>
       </c>
       <c r="D84">
-        <v>-0.02835735705171366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04844400596613127</v>
+      </c>
+      <c r="E84">
+        <v>-0.02201653808772167</v>
+      </c>
+      <c r="F84">
+        <v>-0.04130416577646623</v>
+      </c>
+      <c r="G84">
+        <v>-0.02360963779816809</v>
+      </c>
+      <c r="H84">
+        <v>-0.02604809369506987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1150115145028113</v>
+        <v>0.1217961337837358</v>
       </c>
       <c r="C85">
-        <v>-0.04705930927538141</v>
+        <v>0.006859861305654255</v>
       </c>
       <c r="D85">
-        <v>-0.04336408642806982</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04572603640632951</v>
+      </c>
+      <c r="E85">
+        <v>-0.00938836959025261</v>
+      </c>
+      <c r="F85">
+        <v>0.04051856023728078</v>
+      </c>
+      <c r="G85">
+        <v>-0.008694907529126985</v>
+      </c>
+      <c r="H85">
+        <v>-0.1447229011850071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05049481959961368</v>
+        <v>0.05090927842959839</v>
       </c>
       <c r="C86">
-        <v>-0.0303147465002462</v>
+        <v>-0.002423786600996266</v>
       </c>
       <c r="D86">
-        <v>-0.07084760288904488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04375136437684538</v>
+      </c>
+      <c r="E86">
+        <v>-0.03922464092653541</v>
+      </c>
+      <c r="F86">
+        <v>0.02654163379461665</v>
+      </c>
+      <c r="G86">
+        <v>-0.01956367608918694</v>
+      </c>
+      <c r="H86">
+        <v>0.05740301391941611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1188940187052996</v>
+        <v>0.1248909813167125</v>
       </c>
       <c r="C87">
-        <v>-0.08211608199310735</v>
+        <v>0.01738059675138771</v>
       </c>
       <c r="D87">
-        <v>-0.06229298961423793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08117577960047627</v>
+      </c>
+      <c r="E87">
+        <v>-0.02735195385566467</v>
+      </c>
+      <c r="F87">
+        <v>0.0283612931238008</v>
+      </c>
+      <c r="G87">
+        <v>0.1521082567927038</v>
+      </c>
+      <c r="H87">
+        <v>0.06884284462790959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05498126944200695</v>
+        <v>0.0633059413163764</v>
       </c>
       <c r="C88">
-        <v>-0.03870354402466871</v>
+        <v>0.01074422988824376</v>
       </c>
       <c r="D88">
-        <v>-0.02526067867013966</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04831578384273329</v>
+      </c>
+      <c r="E88">
+        <v>-0.0008834568306797728</v>
+      </c>
+      <c r="F88">
+        <v>0.02238923318060078</v>
+      </c>
+      <c r="G88">
+        <v>0.009543772985081351</v>
+      </c>
+      <c r="H88">
+        <v>-0.0455351272331122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07233584655536907</v>
+        <v>0.1091293853922455</v>
       </c>
       <c r="C89">
-        <v>-0.05110795049164357</v>
+        <v>0.2076963135960437</v>
       </c>
       <c r="D89">
-        <v>0.3241062625375355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3013082952250662</v>
+      </c>
+      <c r="E89">
+        <v>-0.05210128699779899</v>
+      </c>
+      <c r="F89">
+        <v>0.07430628270926784</v>
+      </c>
+      <c r="G89">
+        <v>-0.02776721063793254</v>
+      </c>
+      <c r="H89">
+        <v>-0.02399556500242239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0571607861398354</v>
+        <v>0.08317745241036364</v>
       </c>
       <c r="C90">
-        <v>-0.03531450902230692</v>
+        <v>0.1603906404979117</v>
       </c>
       <c r="D90">
-        <v>0.2799870886633767</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2488009620437972</v>
+      </c>
+      <c r="E90">
+        <v>-0.05169732405475193</v>
+      </c>
+      <c r="F90">
+        <v>0.03004583516389716</v>
+      </c>
+      <c r="G90">
+        <v>0.03479234280592362</v>
+      </c>
+      <c r="H90">
+        <v>0.0188911235325855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08979464671333025</v>
+        <v>0.08992541367732362</v>
       </c>
       <c r="C91">
-        <v>-0.05718661116470966</v>
+        <v>0.01682724193805979</v>
       </c>
       <c r="D91">
-        <v>-0.004411720086053665</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03906053568243586</v>
+      </c>
+      <c r="E91">
+        <v>-0.003554551523564432</v>
+      </c>
+      <c r="F91">
+        <v>0.005102670065231226</v>
+      </c>
+      <c r="G91">
+        <v>-0.02352929792610694</v>
+      </c>
+      <c r="H91">
+        <v>-0.08569830843702152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05808313017398303</v>
+        <v>0.08258139484294415</v>
       </c>
       <c r="C92">
-        <v>-0.04410502355607384</v>
+        <v>0.1858901752984749</v>
       </c>
       <c r="D92">
-        <v>0.3338562180522316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.285029021070209</v>
+      </c>
+      <c r="E92">
+        <v>-0.04640336870671465</v>
+      </c>
+      <c r="F92">
+        <v>0.0369271760080719</v>
+      </c>
+      <c r="G92">
+        <v>0.005703740214401952</v>
+      </c>
+      <c r="H92">
+        <v>-0.02821666086002234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05204348048290097</v>
+        <v>0.08126348349780271</v>
       </c>
       <c r="C93">
-        <v>-0.04432734816514355</v>
+        <v>0.1803741712697155</v>
       </c>
       <c r="D93">
-        <v>0.3073570514532811</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2604971032313816</v>
+      </c>
+      <c r="E93">
+        <v>-0.01667841286475783</v>
+      </c>
+      <c r="F93">
+        <v>0.02974664818034975</v>
+      </c>
+      <c r="G93">
+        <v>0.02024092203895245</v>
+      </c>
+      <c r="H93">
+        <v>-0.002746961912537255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1291682683866481</v>
+        <v>0.1268250678701308</v>
       </c>
       <c r="C94">
-        <v>-0.04374344637339631</v>
+        <v>-0.006767764311034656</v>
       </c>
       <c r="D94">
-        <v>-0.04004627963979642</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04563493425464248</v>
+      </c>
+      <c r="E94">
+        <v>0.02187216722300431</v>
+      </c>
+      <c r="F94">
+        <v>0.01863092008973959</v>
+      </c>
+      <c r="G94">
+        <v>-0.04457567678787354</v>
+      </c>
+      <c r="H94">
+        <v>-0.09992029832612651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1183999772407485</v>
+        <v>0.1315773766020489</v>
       </c>
       <c r="C95">
-        <v>-0.03905083059287533</v>
+        <v>-0.007008154608022369</v>
       </c>
       <c r="D95">
-        <v>-0.05872808887608496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06225103440243117</v>
+      </c>
+      <c r="E95">
+        <v>-0.01268288668875238</v>
+      </c>
+      <c r="F95">
+        <v>0.05048390414557568</v>
+      </c>
+      <c r="G95">
+        <v>0.04904622763400262</v>
+      </c>
+      <c r="H95">
+        <v>0.1046599495482681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2248903755772933</v>
+        <v>0.1908456689001606</v>
       </c>
       <c r="C97">
-        <v>-0.06335267610659216</v>
+        <v>0.005033593482200244</v>
       </c>
       <c r="D97">
-        <v>0.1263137036011704</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05705870712719249</v>
+      </c>
+      <c r="E97">
+        <v>0.02781897900107125</v>
+      </c>
+      <c r="F97">
+        <v>-0.9380113266338231</v>
+      </c>
+      <c r="G97">
+        <v>0.05434930320237098</v>
+      </c>
+      <c r="H97">
+        <v>0.01778844896836803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2421811362679435</v>
+        <v>0.2754968958579403</v>
       </c>
       <c r="C98">
-        <v>-0.06999943767653341</v>
+        <v>0.01147336426353561</v>
       </c>
       <c r="D98">
-        <v>-0.01227368585054711</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04941721539137672</v>
+      </c>
+      <c r="E98">
+        <v>0.2199844421662049</v>
+      </c>
+      <c r="F98">
+        <v>0.03393877668184729</v>
+      </c>
+      <c r="G98">
+        <v>-0.2821378174819872</v>
+      </c>
+      <c r="H98">
+        <v>0.1547482923993969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4464278729120794</v>
+        <v>0.2824232527142604</v>
       </c>
       <c r="C99">
-        <v>0.8773215779160269</v>
+        <v>-0.8322349921650846</v>
       </c>
       <c r="D99">
-        <v>0.005661465931073801</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4336953313983535</v>
+      </c>
+      <c r="E99">
+        <v>-0.0764938505924786</v>
+      </c>
+      <c r="F99">
+        <v>0.0732511707859228</v>
+      </c>
+      <c r="G99">
+        <v>0.007023793478046448</v>
+      </c>
+      <c r="H99">
+        <v>-0.06727216390406569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04327585389987851</v>
+        <v>0.04874639009218616</v>
       </c>
       <c r="C101">
-        <v>-0.04358650373370732</v>
+        <v>0.02912462510515772</v>
       </c>
       <c r="D101">
-        <v>0.003321740785548747</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02263086933700022</v>
+      </c>
+      <c r="E101">
+        <v>-0.05032847789115032</v>
+      </c>
+      <c r="F101">
+        <v>0.02045126236699241</v>
+      </c>
+      <c r="G101">
+        <v>0.003208180559984171</v>
+      </c>
+      <c r="H101">
+        <v>-0.08842181597602651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
